--- a/Industry/201612-201908/HKD/MILLION/Analysis_47_9.1 - Coats and Jackets_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_47_9.1 - Coats and Jackets_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2688" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -10418,6 +10419,296 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="2" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="n">
+        <v>681.011</v>
+      </c>
+      <c r="C2" t="n">
+        <v>787.0309999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.568</v>
+      </c>
+      <c r="E2" t="n">
+        <v>492.865</v>
+      </c>
+      <c r="F2" t="n">
+        <v>841.553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.928</v>
+      </c>
+      <c r="H2" t="n">
+        <v>402.517</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-18.331</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="n">
+        <v>535.176</v>
+      </c>
+      <c r="C3" t="n">
+        <v>647.338</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.958</v>
+      </c>
+      <c r="E3" t="n">
+        <v>412.377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>701.655</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.391</v>
+      </c>
+      <c r="H3" t="n">
+        <v>332.904</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-19.272</v>
+      </c>
+      <c r="J3" t="n">
+        <v>78.586</v>
+      </c>
+      <c r="K3" t="n">
+        <v>82.251</v>
+      </c>
+      <c r="L3" t="n">
+        <v>83.669</v>
+      </c>
+      <c r="M3" t="n">
+        <v>83.376</v>
+      </c>
+      <c r="N3" t="n">
+        <v>82.706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="n">
+        <v>106.213</v>
+      </c>
+      <c r="C4" t="n">
+        <v>104.038</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.048</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59.202</v>
+      </c>
+      <c r="F4" t="n">
+        <v>101.942</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2.015</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60.164</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.596</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.219</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.012</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12.114</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14.947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21.992</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-21.942</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.371</v>
+      </c>
+      <c r="F5" t="n">
+        <v>23.134</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34.764</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.287</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-57.262</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.181</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.749</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.629</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18.489</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.879</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.914999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.822</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-19.835</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.161</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-53.329</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="8"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="9"/>
     <col bestFit="1" customWidth="1" max="9" min="4" width="8"/>
